--- a/Josh's Benchmarks/Benchmark_Tracker.xlsx
+++ b/Josh's Benchmarks/Benchmark_Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,110 +148,108 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Random Access in table. Measures GUPS (Giga Updates per Second) which is a measurement that profiles the memory architecture of a system: number of memory locations that can be randomly updated in one second, divided by 1 billion. Note that there are concerns with race conditions. The main distributions are: (1) TableDist and (2) UpdateDist. These are then used to define TableSpace and Updates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Benchmark: measurement of computer memory bandwidth. Uses the block distribution. Uses vectors for computation: a = b + alpha * c in zippered loop. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polybench</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic matrix multiplication. D = A * B * alpha, E = D * C * beta, where A, B, C, D, E are matrices, and alpha and beta are scalars. The size of the matrices, alpha, beta, the type of distribution, and whether to print matrices  can be specified at the command line.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emailed. On Josh's computer in Compiler directory/Benchmarks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computes the FFT using Block distribution and cyclic distribution. The main method is using "radix-4 butterflies". The problem size can be specified with the command line variable "n". I am unsure if we need the assertion in Lines 63-65; I think it is a good one to use, but I don't think we want the assertion that "all butterflies are local to a given locale" as it defeats the purpose of the optimization. However, if we do keep this assertion (it may be critical to the success of the computation), there are communication calls across different domains so the optimization should be taken advantage of.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPCC Benchmarks - We may want to get rid of dependencies in separate modules in the compiler's directory (ie. computeProblemSize)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needs to be modified to take advantage of optimizations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needs to be modified to take advantage of optimizations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modified. Hits the optimization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler directory/examples/benchmarks/hpcc/ra-atomics.chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream.chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num Lines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Located at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fft.chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler directory/examples/benchmarks/hpcc/ftt.chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpl.chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler directory/examples/benchmarks/hpcc/hpl.chpl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atax</t>
+  </si>
+  <si>
+    <t>matrix-vector multiplication</t>
+  </si>
+  <si>
+    <t>dynamic_programming.chpl</t>
+  </si>
+  <si>
     <t>Generates a matrix and does LU factorization: factors into two matrices which are lower/upper matrices. Uses block cylic distribution. Uses the "reshape" function in chapel to set up the problem space grid. The way that the benchmark is implemented right now ensures each locale has its own copy of needed data (185-206). Is this a problem?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random Access in table. Measures GUPS (Giga Updates per Second) which is a measurement that profiles the memory architecture of a system: number of memory locations that can be randomly updated in one second, divided by 1 billion. Note that there are concerns with race conditions. The main distributions are: (1) TableDist and (2) UpdateDist. These are then used to define TableSpace and Updates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark: measurement of computer memory bandwidth. Uses the block distribution. Uses vectors for computation: a = b + alpha * c in zippered loop. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polybench</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic matrix multiplication. D = A * B * alpha, E = D * C * beta, where A, B, C, D, E are matrices, and alpha and beta are scalars. The size of the matrices, alpha, beta, the type of distribution, and whether to print matrices  can be specified at the command line.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emailed. On Josh's computer in Compiler directory/Benchmarks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computes the FFT using Block distribution and cyclic distribution. The main method is using "radix-4 butterflies". The problem size can be specified with the command line variable "n". I am unsure if we need the assertion in Lines 63-65; I think it is a good one to use, but I don't think we want the assertion that "all butterflies are local to a given locale" as it defeats the purpose of the optimization. However, if we do keep this assertion (it may be critical to the success of the computation), there are communication calls across different domains so the optimization should be taken advantage of.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HPCC Benchmarks - We may want to get rid of dependencies in separate modules in the compiler's directory (ie. computeProblemSize)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Needs to be modified to take advantage of optimizations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Needs to be modified to take advantage of optimizations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modified. Hits the optimization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compiler directory/examples/benchmarks/hpcc/ra-atomics.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stream.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num Lines</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Located at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fft.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compiler directory/examples/benchmarks/hpcc/ftt.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpl.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compiler directory/examples/benchmarks/hpcc/hpl.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra-atomics.chpl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atax</t>
-  </si>
-  <si>
-    <t>matrix-vector multiplication</t>
   </si>
 </sst>
 </file>
@@ -335,8 +333,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -687,7 +685,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -700,92 +698,92 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>224</v>
       </c>
       <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2">
         <v>162</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -793,105 +791,105 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>162</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3">
-        <v>162</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="1:5" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -900,20 +898,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>152</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -934,55 +932,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>232</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>140</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
-        <v>43</v>
+      <c r="E22" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Josh's Benchmarks/Benchmark_Tracker.xlsx
+++ b/Josh's Benchmarks/Benchmark_Tracker.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="33600" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="24520" windowHeight="15380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t>Stencil9</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -307,6 +308,135 @@
   </si>
   <si>
     <t xml:space="preserve">1-D Jacobi stencil computation </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>trmm</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>covariance</t>
+  </si>
+  <si>
+    <t>cholesky</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>mvt</t>
+  </si>
+  <si>
+    <t>syrk</t>
+  </si>
+  <si>
+    <t>syr2k</t>
+  </si>
+  <si>
+    <t>fdtd-2d</t>
+  </si>
+  <si>
+    <t>fdtd-ampl</t>
+  </si>
+  <si>
+    <t>jacobi1D</t>
+  </si>
+  <si>
+    <t>jacobi2D</t>
+  </si>
+  <si>
+    <t>stencil9</t>
+  </si>
+  <si>
+    <t>pascal</t>
+  </si>
+  <si>
+    <t>folding</t>
+  </si>
+  <si>
+    <t>Input Size</t>
+  </si>
+  <si>
+    <t>2 matrix multiplications (D=A*B; E=C*D)</t>
+  </si>
+  <si>
+    <t>128 x 128</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>64 x 64</t>
+  </si>
+  <si>
+    <t>Floyd-Warshall all-pairs shortest path algorithm</t>
+  </si>
+  <si>
+    <t>256 x 256</t>
+  </si>
+  <si>
+    <t>512 x 512</t>
+  </si>
+  <si>
+    <t>1000 x 1000</t>
+  </si>
+  <si>
+    <t>128 x 128 x 128</t>
+  </si>
+  <si>
+    <t>400 x 400</t>
+  </si>
+  <si>
+    <t>100000, 100003</t>
+  </si>
+  <si>
+    <t>A correlation matrix describes correlation among M variables. (ij)th element equal to correlation coefficient between i and j element.</t>
+  </si>
+  <si>
+    <t>Correlation computation</t>
+  </si>
+  <si>
+    <t>Covariance computation</t>
+  </si>
+  <si>
+    <t>Cholesky decomposition</t>
+  </si>
+  <si>
+    <t>Matrix vector product and transpose</t>
+  </si>
+  <si>
+    <t>2D Finite Different Time Domain Kernel</t>
+  </si>
+  <si>
+    <t>1D Jacobi stencil computation</t>
+  </si>
+  <si>
+    <t>2D Jacobi stencil computation</t>
+  </si>
+  <si>
+    <t>9-point stencil computation</t>
+  </si>
+  <si>
+    <t>Computation of pascal triangle rows</t>
+  </si>
+  <si>
+    <t>Strided sum of consecutive array elements</t>
   </si>
 </sst>
 </file>
@@ -357,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -405,13 +535,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -454,6 +589,8 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -784,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1315,4 +1452,574 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18">
+        <v>222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>221</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>235</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>201</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>333</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>